--- a/biology/Zoologie/Atolmis_rubricollis/Atolmis_rubricollis.xlsx
+++ b/biology/Zoologie/Atolmis_rubricollis/Atolmis_rubricollis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atolmis rubricollis, la Veuve ou le Collier rouge, est une espèce paléarctique de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			♂  MHNT
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasie.
 </t>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêts de divers types, jusqu'à environ 1 500 m d'altitude en France.
 </t>
@@ -606,7 +624,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce univoltine, les imagos volent de mai à juillet de jour comme de nuit ; les chenilles mangent des lichens, parfois des plantes basses.
 </t>
@@ -637,12 +657,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Atolmis rubricollis (Linnaeus, 1758)[1].
-L'espèce a été initialement classée dans le genre Phalaena sous le protonyme Phalaena rubricollis Linnaeus, 1758[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Veuve, Collier rouge[1], veuve[1], écaille veuve[2].
-Atolmis rubricollis a pour synonymes[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Atolmis rubricollis (Linnaeus, 1758).
+L'espèce a été initialement classée dans le genre Phalaena sous le protonyme Phalaena rubricollis Linnaeus, 1758.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Veuve, Collier rouge, veuve, écaille veuve.
+Atolmis rubricollis a pour synonymes :
 Atolmis canescens Strand, 1919
 Atolmis flavicollis Neuburger
 Atolmis rubicollis Linnaeus, 1761
